--- a/meta/5-6-1-1.xlsx
+++ b/meta/5-6-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="5.6.1.1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>Калымбетова Ы.И.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y.Kalymbetova@stat.kg </t>
   </si>
   <si>
     <t>(312) 66 41 64</t>
@@ -178,13 +172,19 @@
     <t>Кыргызская Республика</t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Отдел статистики домашних хозяйств)</t>
-  </si>
-  <si>
     <t>Демографические исследования и обследования здоровья (DHS), кластерныме обследования по многим показателям (MICS).</t>
   </si>
   <si>
     <t>Этот показатель рассчитывается на основе данных кластерного обследования по многим показателям (MICS). Данные собраны для целевой группы - женщины в возрасте 15-49 лет.</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Yryskan.Kalymbetova@gmail.com</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление статистики домашних хозяйств)</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,15 +684,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1784,9 +1784,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" display="https://sustainabledevelopment-kyrgyzstan.github.io/"/>
-    <hyperlink ref="B8" r:id="rId2" display="mailto:Y.Kalymbetova@stat.kg"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/meta/5-6-1-1.xlsx
+++ b/meta/5-6-1-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="5.6.1.1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Калымбетова Ы.И.</t>
-  </si>
-  <si>
-    <t>(312) 66 41 64</t>
   </si>
   <si>
     <t>Доля женщин в возрасте 15-49 лет (замужем или в союзе), которые принимают собственное решение по всем трем избранным областям, то есть не могут говорить «нет» сексуальному сношениям с мужем или партнером, если они этого не хотят; принять решение об использовании контрацепции; и принять решение об их собственном медицинском обслуживании. Только женщины, которые предоставляют «да» ответ на все три компонента, считаются женщинами, которые «принимают собственные решения в сексуальных и репродуктивных отношениях".</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>Национальный статистический комитет КР (Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t>(312) 32 55 46</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
